--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/one-screen-one-plate-four-wells.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/one-screen-one-plate-four-wells.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBADA70-BA7A-4A38-912B-A0255757A61C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532B007-3CA2-4C16-9DE1-443DF577F503}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" tabRatio="817" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="817" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,7 @@
     <sheet name="Channel" sheetId="23" r:id="rId11"/>
     <sheet name="Color" sheetId="24" r:id="rId12"/>
     <sheet name="Binary_Data" sheetId="25" r:id="rId13"/>
-    <sheet name="Unit" sheetId="26" r:id="rId14"/>
-    <sheet name="size" sheetId="27" r:id="rId15"/>
+    <sheet name="size" sheetId="27" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="299">
   <si>
     <t/>
   </si>
@@ -840,18 +839,6 @@
   </si>
   <si>
     <t>pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -862,59 +849,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -942,10 +876,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -969,10 +899,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitionMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1140,6 +1066,17 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1147,7 +1084,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,13 +1113,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1216,7 +1146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,9 +1166,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,14 +1493,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1605,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -1629,7 +1556,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -1637,31 +1564,31 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>226</v>
       </c>
@@ -1669,15 +1596,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -1685,7 +1612,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -1693,7 +1620,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -1701,7 +1628,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>197</v>
       </c>
@@ -1709,7 +1636,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -1717,12 +1644,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1738,21 +1665,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1814,7 +1741,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1783,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1900,12 +1827,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
         <v>201</v>
@@ -1941,12 +1868,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
         <v>201</v>
@@ -1982,12 +1909,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
         <v>201</v>
@@ -2023,12 +1950,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D8" t="s">
         <v>201</v>
@@ -2064,12 +1991,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D9" t="s">
         <v>201</v>
@@ -2105,12 +2032,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
         <v>201</v>
@@ -2146,12 +2073,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D11" t="s">
         <v>201</v>
@@ -2187,12 +2114,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
         <v>201</v>
@@ -2228,12 +2155,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
         <v>201</v>
@@ -2269,12 +2196,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
         <v>201</v>
@@ -2310,12 +2237,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
         <v>201</v>
@@ -2364,16 +2291,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2314,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2322,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2407,7 +2334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2421,122 +2348,122 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>110</v>
@@ -2554,15 +2481,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2573,14 +2500,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2589,7 +2516,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
@@ -2620,17 +2547,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2647,7 +2574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2656,7 +2583,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -2671,7 +2598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2685,10 +2612,10 @@
         <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>189</v>
       </c>
@@ -2702,7 +2629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>154</v>
       </c>
@@ -2716,7 +2643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>156</v>
       </c>
@@ -2730,7 +2657,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>158</v>
       </c>
@@ -2744,7 +2671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>190</v>
       </c>
@@ -2758,7 +2685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>191</v>
       </c>
@@ -2772,7 +2699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>192</v>
       </c>
@@ -2786,7 +2713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>193</v>
       </c>
@@ -2800,7 +2727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>194</v>
       </c>
@@ -2814,7 +2741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>195</v>
       </c>
@@ -2828,7 +2755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>196</v>
       </c>
@@ -2849,154 +2776,53 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEB9EAE-CE04-434F-9978-DB0BC8F00D3B}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99C7A2-56C4-478A-BE0B-4655405E805C}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3005,10 +2831,10 @@
         <v>161</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3019,18 +2845,18 @@
         <v>152</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>248</v>
+      <c r="D5" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3046,19 +2872,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +2907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +2922,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3117,7 +2943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3140,12 +2966,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>108</v>
@@ -3157,7 +2983,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>107</v>
       </c>
@@ -3168,7 +2994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
@@ -3176,7 +3002,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>107</v>
       </c>
@@ -3197,18 +3023,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3231,7 +3057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3242,7 +3068,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3263,7 +3089,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3286,12 +3112,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>112</v>
@@ -3306,7 +3132,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
@@ -3314,12 +3140,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>117</v>
@@ -3334,7 +3160,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>122</v>
       </c>
@@ -3342,12 +3168,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -3362,7 +3188,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>123</v>
       </c>
@@ -3370,7 +3196,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>123</v>
       </c>
@@ -3378,7 +3204,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
@@ -3386,7 +3212,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>123</v>
       </c>
@@ -3394,12 +3220,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>135</v>
@@ -3414,7 +3240,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
@@ -3434,17 +3260,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3461,7 +3287,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3470,7 +3296,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3485,7 +3311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3502,12 +3328,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>111</v>
@@ -3516,12 +3342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>119</v>
@@ -3530,12 +3356,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>120</v>
@@ -3544,12 +3370,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>121</v>
@@ -3558,12 +3384,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>129</v>
@@ -3572,12 +3398,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>130</v>
@@ -3586,12 +3412,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>131</v>
@@ -3600,12 +3426,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>132</v>
@@ -3614,12 +3440,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>133</v>
@@ -3628,12 +3454,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>137</v>
@@ -3642,12 +3468,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>138</v>
@@ -3668,17 +3494,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3698,7 +3524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3708,7 +3534,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3726,7 +3552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3746,12 +3572,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>141</v>
@@ -3763,7 +3589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>139</v>
       </c>
@@ -3774,7 +3600,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
@@ -3785,7 +3611,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
         <v>139</v>
       </c>
@@ -3796,12 +3622,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>142</v>
@@ -3813,7 +3639,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
         <v>140</v>
       </c>
@@ -3824,7 +3650,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>140</v>
       </c>
@@ -3835,7 +3661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>140</v>
       </c>
@@ -3860,18 +3686,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3891,7 +3717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -3903,7 +3729,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -3921,7 +3747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3941,12 +3767,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>107</v>
@@ -3968,15 +3794,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3987,14 +3813,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4003,7 +3829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4014,7 +3840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>145</v>
       </c>
@@ -4034,15 +3860,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4053,14 +3879,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4069,7 +3895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4080,12 +3906,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4101,18 +3927,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4132,7 +3958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -4144,7 +3970,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -4162,7 +3988,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -4182,12 +4008,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>200</v>
@@ -4199,12 +4025,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>149</v>
@@ -4216,12 +4042,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>163</v>
@@ -4233,12 +4059,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>164</v>
@@ -4250,12 +4076,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>165</v>
@@ -4267,12 +4093,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>166</v>
@@ -4284,12 +4110,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>167</v>
@@ -4301,12 +4127,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>168</v>
@@ -4318,12 +4144,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>169</v>
@@ -4335,12 +4161,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>170</v>
@@ -4352,12 +4178,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>171</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/one-screen-one-plate-four-wells.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/one-screen-one-plate-four-wells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532B007-3CA2-4C16-9DE1-443DF577F503}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0B093-D2EF-45FD-B2FC-ED0FD702ED27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="817" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Plate" sheetId="3" r:id="rId2"/>
     <sheet name="Well" sheetId="15" r:id="rId3"/>
     <sheet name="Well_Sample" sheetId="16" r:id="rId4"/>
-    <sheet name="Plate_Acquision" sheetId="17" r:id="rId5"/>
+    <sheet name="Plate_Acquisiotion" sheetId="17" r:id="rId5"/>
     <sheet name="Screen" sheetId="18" r:id="rId6"/>
     <sheet name="Reagent_Set" sheetId="19" r:id="rId7"/>
     <sheet name="Reagent" sheetId="20" r:id="rId8"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="314">
   <si>
     <t/>
   </si>
@@ -304,9 +304,6 @@
     <t>end time</t>
   </si>
   <si>
-    <t>Plate Acquision</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -346,10 +343,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>plate</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -378,10 +371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -390,10 +379,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:1.1.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:reagent</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -402,22 +387,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:1.1.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>reagent:reagent1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:wellSample:1.2.1.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.2.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -430,34 +403,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[well:well:1.1.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.1.2.5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image4</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -478,18 +423,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well:1.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.2.2.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[wellSample:wellSample:1.2.2.2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image9</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -498,14 +431,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[plateAcquisition:plate1-1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plateAcquisition:plate1-2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:49:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -521,17 +446,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[reagentSet:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Reagent Set</t>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -540,10 +457,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -552,30 +465,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -627,106 +516,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[pixels:image10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>reagent</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -748,10 +537,6 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/image/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/plate/</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1077,6 +862,282 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Plate Acquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/well/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/wellSample/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/plageAcquisition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/reagentSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well1.2.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plateAcquisition1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plateAcquisition1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.1.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.1.2.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.2.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:wellSample1.2.2.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:reagentSet1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/plate/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1489,14 +1550,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1550,106 +1611,162 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -1668,14 +1785,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1687,10 +1804,10 @@
         <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>68</v>
@@ -1747,40 +1864,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -1788,22 +1905,22 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>29</v>
@@ -1821,30 +1938,30 @@
         <v>29</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1862,30 +1979,30 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -1903,30 +2020,30 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -1944,30 +2061,30 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1985,30 +2102,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2026,30 +2143,30 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2067,30 +2184,30 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2108,30 +2225,30 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2149,30 +2266,30 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2190,30 +2307,30 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2231,30 +2348,30 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2272,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2411,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -2308,7 +2425,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>35</v>
@@ -2328,7 +2445,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -2342,7 +2459,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>45</v>
@@ -2350,123 +2467,123 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2611,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2513,7 +2630,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2524,12 +2641,12 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -2550,7 +2667,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -2612,18 +2729,18 @@
         <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -2631,13 +2748,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -2645,13 +2762,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -2659,13 +2776,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -2673,13 +2790,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -2687,13 +2804,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -2701,13 +2818,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -2715,13 +2832,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -2729,13 +2846,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -2743,13 +2860,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -2757,13 +2874,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -2799,13 +2916,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -2813,13 +2930,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -2828,10 +2945,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -2839,24 +2956,24 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2879,8 +2996,8 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2892,7 +3009,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>14</v>
@@ -2928,7 +3045,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>22</v>
@@ -2951,7 +3068,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -2968,46 +3085,46 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3026,9 +3143,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -3042,7 +3159,7 @@
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>36</v>
@@ -3054,7 +3171,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3074,7 +3191,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>41</v>
@@ -3086,7 +3203,7 @@
         <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3097,7 +3214,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>46</v>
@@ -3109,18 +3226,18 @@
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3129,26 +3246,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -3157,26 +3274,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -3185,50 +3302,50 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -3237,15 +3354,15 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>134</v>
+        <v>263</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3263,7 +3380,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -3278,7 +3395,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>48</v>
@@ -3302,7 +3419,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>50</v>
@@ -3319,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>52</v>
@@ -3330,13 +3447,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3344,13 +3461,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -3358,13 +3475,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3372,13 +3489,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -3386,13 +3503,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3400,13 +3517,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -3414,13 +3531,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1">
         <v>11</v>
@@ -3428,13 +3545,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -3442,13 +3559,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1">
         <v>19</v>
@@ -3456,13 +3573,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -3470,13 +3587,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>276</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -3497,10 +3614,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3509,10 +3626,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>248</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>86</v>
@@ -3540,7 +3657,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>84</v>
@@ -3560,7 +3677,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>53</v>
@@ -3573,103 +3690,103 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
-        <v>139</v>
+      <c r="B5" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>139</v>
+      <c r="B6" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
-        <v>117</v>
+      <c r="F6" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
-        <v>139</v>
+      <c r="B7" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
-        <v>124</v>
+      <c r="F7" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
-        <v>139</v>
+      <c r="B8" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
-        <v>135</v>
+      <c r="F8" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>140</v>
+      <c r="B9" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
-        <v>140</v>
+      <c r="B10" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
-        <v>118</v>
+      <c r="F10" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="4" t="s">
-        <v>140</v>
+      <c r="B11" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="4" t="s">
-        <v>125</v>
+      <c r="F11" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
-        <v>140</v>
+      <c r="B12" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="4" t="s">
-        <v>136</v>
+      <c r="F12" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3682,9 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3AFB34-6CBF-4DAB-B5F5-6232438D2E74}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3693,7 +3808,7 @@
     <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3702,19 +3817,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -3738,13 +3853,13 @@
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -3752,33 +3867,33 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3797,17 +3912,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>34</v>
@@ -3834,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>44</v>
@@ -3842,10 +3957,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3991,7 @@
         <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3892,7 +4007,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3903,15 +4018,15 @@
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +4048,7 @@
     <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -3946,7 +4061,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3976,7 +4091,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -3996,7 +4111,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
@@ -4010,189 +4125,189 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>179</v>
+        <v>289</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/one-screen-one-plate-four-wells.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/one-screen-one-plate-four-wells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F0B093-D2EF-45FD-B2FC-ED0FD702ED27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA80D412-5902-4146-AFFF-63B10B9A777F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="817" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="314">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="315">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -112,18 +109,9 @@
     <t>rdfs:comment</t>
   </si>
   <si>
-    <t>:well</t>
-  </si>
-  <si>
-    <t>:plateAcquisition</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Plate</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
@@ -133,12 +121,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>:Well</t>
-  </si>
-  <si>
-    <t>:PlateAcquisition</t>
-  </si>
-  <si>
     <t>Well</t>
   </si>
   <si>
@@ -157,30 +139,6 @@
     <t>column</t>
   </si>
   <si>
-    <t>:reagent</t>
-  </si>
-  <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:wellSample</t>
-  </si>
-  <si>
-    <t>:row</t>
-  </si>
-  <si>
-    <t>:column</t>
-  </si>
-  <si>
-    <t>:Reagent</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:WellSample</t>
-  </si>
-  <si>
     <t>Well Sample</t>
   </si>
   <si>
@@ -190,15 +148,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>:image</t>
-  </si>
-  <si>
-    <t>:index</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -211,15 +160,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -256,18 +196,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -280,24 +211,12 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
     <t>Reagent</t>
   </si>
   <si>
-    <t>:startTime</t>
-  </si>
-  <si>
-    <t>:endTime</t>
-  </si>
-  <si>
     <t>start time</t>
   </si>
   <si>
@@ -313,18 +232,6 @@
     <t>reagent set</t>
   </si>
   <si>
-    <t>:plate</t>
-  </si>
-  <si>
-    <t>:reagentSet</t>
-  </si>
-  <si>
-    <t>:Screen</t>
-  </si>
-  <si>
-    <t>:ReagentSet</t>
-  </si>
-  <si>
     <t>foaf</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -379,14 +286,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:reagent</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Reagent</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>reagent:reagent1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -548,66 +447,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000117</t>
   </si>
   <si>
@@ -616,10 +455,6 @@
   </si>
   <si>
     <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1138,6 +973,206 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/one-screen-one-plate-four-wells/plate/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PlateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:WellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:row</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:column</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:startTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:endTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Screen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ReagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1563,210 +1598,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1824,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -1798,51 +1833,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1860,108 +1895,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>165</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1979,30 +2014,30 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -2020,30 +2055,30 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -2061,30 +2096,30 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2102,30 +2137,30 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2143,30 +2178,30 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -2184,30 +2219,30 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -2225,30 +2260,30 @@
         <v>1</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -2266,30 +2301,30 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -2307,30 +2342,30 @@
         <v>1</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2348,30 +2383,30 @@
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -2389,10 +2424,10 @@
         <v>1</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2412,28 +2447,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2441,149 +2476,149 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2602,51 +2637,51 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>309</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -2668,32 +2703,32 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2702,45 +2737,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -2748,13 +2783,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -2762,13 +2797,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -2776,13 +2811,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1">
         <v>32</v>
@@ -2790,13 +2825,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
         <v>32</v>
@@ -2804,13 +2839,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1">
         <v>32</v>
@@ -2818,13 +2853,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E11" s="1">
         <v>32</v>
@@ -2832,13 +2867,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1">
         <v>32</v>
@@ -2846,13 +2881,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -2860,13 +2895,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
@@ -2874,13 +2909,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E15" s="1">
         <v>32</v>
@@ -2913,67 +2948,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2994,8 +3029,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -3003,128 +3038,128 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3153,30 +3188,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3187,57 +3222,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3246,26 +3281,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -3274,26 +3309,26 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -3302,50 +3337,50 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -3354,15 +3389,15 @@
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3416,7 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -3389,24 +3424,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3415,45 +3450,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3461,13 +3496,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -3475,13 +3510,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -3489,13 +3524,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1">
         <v>6</v>
@@ -3503,13 +3538,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -3517,13 +3552,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
@@ -3531,13 +3566,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>11</v>
@@ -3545,13 +3580,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -3559,13 +3594,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1">
         <v>19</v>
@@ -3573,13 +3608,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -3587,13 +3622,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -3623,27 +3658,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3653,140 +3688,140 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="1" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="1" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="1" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3805,8 +3840,8 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -3814,31 +3849,31 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3846,54 +3881,54 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>283</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3919,48 +3954,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3985,48 +4020,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4045,9 +4080,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -4055,259 +4090,259 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>278</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
